--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,12 +455,12 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,35 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,27 +531,32 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>BCIO:010124</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>discipline of pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -549,7 +564,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -559,19 +574,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>full-day, 6 years</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -582,7 +597,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -594,15 +609,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>BCIO:010115</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -610,27 +625,32 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>BCIO:010119</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -638,30 +658,25 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -671,30 +686,25 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>language proficiency of person source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -704,7 +714,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -714,22 +724,22 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>BCIO:010117</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -737,25 +747,30 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>target behaviour of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -765,7 +780,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -775,30 +790,30 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -808,20 +823,20 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>non-binary, transexual</t>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -831,7 +846,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -841,30 +856,30 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -874,22 +889,22 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -897,30 +912,25 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>person source</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -930,7 +940,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -942,13 +952,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>role model for a person</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -958,7 +968,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -966,22 +976,22 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -991,96 +1001,101 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+          <t>BCIO:010097</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1090,30 +1105,30 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1123,19 +1138,19 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010129</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t>volunteering of person source</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1146,27 +1161,32 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1174,40 +1194,35 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1217,58 +1232,63 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1278,327 +1298,282 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1610,155 +1585,135 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1768,63 +1723,58 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -1834,30 +1784,30 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -1867,30 +1817,30 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -1900,30 +1850,30 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -1933,30 +1883,30 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -1966,63 +1916,58 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2032,30 +1977,30 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2065,42 +2010,47 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2108,7 +2058,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>legal, social and cultural professional</t>
+          <t>personal care worker</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2116,19 +2066,24 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2137,14 +2092,14 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>author and journalist</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2154,14 +2109,14 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2170,14 +2125,14 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>legal professional</t>
+          <t>home-based personal care worker</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2187,14 +2142,14 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2203,14 +2158,14 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>librarian, archivist and curator</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2220,14 +2175,14 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2236,14 +2191,14 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>creative and performing artist</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2253,63 +2208,58 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2319,30 +2269,30 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2352,30 +2302,30 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2385,30 +2335,30 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2418,42 +2368,47 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2462,14 +2417,14 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>music teacher</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2479,14 +2434,14 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2495,31 +2450,26 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>primary school teacher</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2528,14 +2478,14 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>secondary education teacher</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2545,30 +2495,30 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2578,30 +2528,30 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2611,30 +2561,30 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2644,14 +2594,14 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2660,31 +2610,26 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2693,14 +2638,14 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -2710,30 +2655,30 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -2743,30 +2688,30 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -2776,30 +2721,30 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -2809,30 +2754,30 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -2842,14 +2787,14 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2859,13 +2804,13 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>community health worker</t>
+          <t>specialist medical practitioner</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -2875,14 +2820,14 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2892,14 +2837,13 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>environmental and occupational health inspector and associate</t>
+          <t>generalist medical practitioner</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -2909,30 +2853,30 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -2942,30 +2886,30 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -2975,30 +2919,30 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3008,30 +2952,30 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3041,30 +2985,30 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3074,14 +3018,14 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3090,14 +3034,14 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3107,14 +3051,14 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3123,14 +3067,14 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>business and administration associate professional</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3140,14 +3084,14 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3156,14 +3100,14 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3173,14 +3117,14 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3188,7 +3132,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>science and engineering professional</t>
+          <t>legal, social and cultural professional</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3196,40 +3140,35 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3239,30 +3178,30 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3272,30 +3211,30 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3305,30 +3244,30 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3338,58 +3277,63 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3399,30 +3343,30 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3432,30 +3376,30 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3465,42 +3409,47 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3508,7 +3457,7 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sales worker</t>
+          <t>technician and associate professional</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -3516,40 +3465,35 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3559,30 +3503,30 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3592,30 +3536,30 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -3625,30 +3569,30 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -3658,30 +3602,30 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -3691,30 +3635,30 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -3724,30 +3668,30 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -3757,198 +3701,229 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -3958,278 +3933,313 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010060</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010062</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>plant and machine operator</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4238,7 +4248,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4248,21 +4258,21 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t>elementary occupation</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4271,7 +4281,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4281,21 +4291,21 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4304,7 +4314,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4314,21 +4324,21 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4337,7 +4347,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4347,22 +4357,22 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -4370,7 +4380,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4382,13 +4392,13 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>vocational training student or trainee</t>
+          <t>school student or trainee</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -4398,7 +4408,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4410,15 +4420,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>BCIO:010087</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -4426,7 +4436,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -4438,13 +4448,13 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>informal education student or trainee</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4454,40 +4464,35 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -4497,30 +4502,30 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -4530,21 +4535,21 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>member of British Psychological Society</t>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>acquired knowledge or skill</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4553,35 +4558,40 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010092</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -4591,30 +4601,30 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010090</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -4624,19 +4634,19 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>supervised</t>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4647,25 +4657,25 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -4675,7 +4685,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -4685,20 +4695,20 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4708,7 +4718,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -4718,19 +4728,19 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>expertise of person source</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4741,7 +4751,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -4753,13 +4763,13 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>person source</t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -4769,35 +4779,40 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -4809,14 +4824,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>spouse or partner</t>
+          <t>pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4825,7 +4840,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -4835,30 +4850,30 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -4868,30 +4883,30 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -4901,30 +4916,30 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -4932,9 +4947,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,25 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,27 +521,32 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>BCIO:010111</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -549,29 +554,29 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -582,10 +587,10 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -594,15 +599,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>BCIO:010119</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -610,10 +615,10 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -622,15 +627,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -638,30 +643,30 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>religious group membership of person source</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -671,30 +676,30 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -704,58 +709,63 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010113</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>language proficiency of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -765,63 +775,63 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -831,30 +841,25 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,32 +869,32 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -897,30 +902,35 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -930,25 +940,30 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -958,32 +973,32 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -991,32 +1006,32 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1024,24 +1039,29 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1052,25 +1072,25 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1080,30 +1100,30 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1113,29 +1133,29 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>male, man</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t>total number of people able to deliver intervention</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1146,10 +1166,10 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1158,15 +1178,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1174,76 +1194,71 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1252,846 +1267,766 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2100,26 +2035,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2128,304 +2063,289 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2433,7 +2353,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>technician and associate professional</t>
+          <t>personal care worker</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2441,19 +2361,24 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2462,31 +2387,31 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2495,31 +2420,31 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2528,494 +2453,488 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3025,30 +2944,30 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>medical and pharmaceutical technician</t>
+          <t>specialist medical practitioner</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3058,30 +2977,30 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine associate professional</t>
+          <t>generalist medical practitioner</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3090,31 +3009,31 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3123,31 +3042,31 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>business and administration associate professional</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3156,516 +3075,516 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>veterinarian</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>nursing and midwifery professional</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3674,31 +3593,31 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>home-based personal care worker</t>
+          <t>author and journalist</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -3707,950 +3626,1036 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>teachers’ aide</t>
+          <t>religious professional</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>carer</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010051</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010066</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010027</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010028</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>supervised</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010029</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4659,66 +4664,66 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>course credit</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4749,7 @@
           <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4753,13 +4758,13 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>person source</t>
+          <t>role model for a person</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -4769,25 +4774,30 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>person source</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4797,10 +4807,10 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4809,47 +4819,42 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>child relationship</t>
+          <t>parent or guardian</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -4858,31 +4863,31 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>sibling relationship</t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -4891,31 +4896,31 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>parent or guardian</t>
+          <t>sibling relationship</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -4924,17 +4929,50 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:010097</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,25 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,32 +521,27 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>male, man</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -554,29 +549,29 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>voluntary basis, volunteering</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -587,10 +582,10 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -599,13 +594,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>psychological influence on intervention delivery of person source</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -615,10 +610,15 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>course credit</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -627,13 +627,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -643,32 +643,32 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>paid in cash, vouchers</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -676,32 +676,32 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>supervised</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -709,142 +709,137 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>non-binary, transexual</t>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>member of British Psychological Society</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>age of person source</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -853,15 +848,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -869,32 +864,27 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>BCIO:050842</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -902,35 +892,30 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>person source</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -940,30 +925,25 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -973,109 +953,109 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010098</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>supervised</t>
+          <t>brother, sister, step-brother, step-sister</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010099</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
+          <t>daughter, son, step-daughter, step-son</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010096</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1084,48 +1064,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1133,29 +1113,29 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
+          <t>full-day, 6 years</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1166,10 +1146,10 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1178,12 +1158,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>amount of experience</t>
+          <t>total number of people able to deliver intervention</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1194,29 +1174,24 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>personal role of source</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1227,10 +1202,10 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1239,15 +1214,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>BCIO:010004</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1255,10 +1230,15 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1267,59 +1247,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1328,92 +1308,92 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>member of British Psychological Society</t>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
+          <t>BCIO:010036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1422,26 +1402,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1450,26 +1435,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010037</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1478,26 +1468,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1506,26 +1501,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1534,191 +1534,196 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>Interpretator; other linguist</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>Lawyer, Judge, Coroner</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>veterinarian</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1727,26 +1732,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>optometrist and ophthalmic optician</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1755,26 +1765,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1783,26 +1798,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1811,26 +1831,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>nursing and midwifery professional</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1839,26 +1859,31 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1867,26 +1892,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1895,26 +1925,31 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010013</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1923,26 +1958,31 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1951,26 +1991,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Midwife</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1979,26 +2024,31 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2007,26 +2057,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2035,26 +2090,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2063,26 +2123,31 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2091,125 +2156,125 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2218,26 +2283,31 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2246,139 +2316,139 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2387,31 +2457,31 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>teachers’ aide</t>
+          <t>artistic, cultural and culinary associate professional</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2420,31 +2490,31 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>health care assistant</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2453,314 +2523,319 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>child care worker</t>
+          <t>health associate professional</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t xml:space="preserve">Veterinary Technician </t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>Assistant midwife, Traditional midwife</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2769,73 +2844,74 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2844,64 +2920,64 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>business and administration associate professional</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2910,97 +2986,92 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t>early childhood educator</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>Early childhood educator, Pre-school teacher</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3009,31 +3080,31 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>university and higher education teacher</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3042,31 +3113,31 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>special needs teacher</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3075,31 +3146,31 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>environmental and occupational health and hygiene professional</t>
+          <t>arts teacher</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3108,31 +3179,31 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>secondary education teacher</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>Secondary school teacher, High school teacher</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3141,116 +3212,121 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3259,92 +3335,92 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3353,271 +3429,266 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>researcher, research assistant, investigator</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>Personal carer</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -3626,50 +3697,55 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>religious professional</t>
+          <t>home-based personal care worker</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3678,7 +3754,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3687,975 +3763,899 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>carer</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>religious associate professional</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>MSc student, Masters student</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>undergraduate student</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>graduate student</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>PhD student</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sport and fitness worker</t>
-        </is>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>discipline of pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>discipline of current programme of study or training</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>psychology, medicine, hairdressing</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>BCIO:010108</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>fluent, native</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4664,81 +4664,81 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>BCIO:010110</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -4746,10 +4746,15 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4758,46 +4763,46 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>person source</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4807,10 +4812,10 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4819,13 +4824,13 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>target behaviour of person source</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -4835,10 +4840,15 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4847,132 +4857,122 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>male, man</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>female, woman</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -450,39 +450,39 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>expertise of person source</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,7 +493,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -505,13 +505,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,7 +521,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -529,23 +529,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>gender</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>other gender</t>
+          <t>pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -554,7 +554,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -562,32 +562,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -595,57 +595,52 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -653,27 +648,32 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -681,32 +681,27 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -714,32 +709,27 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -747,30 +737,25 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -780,7 +765,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -816,7 +801,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
@@ -854,7 +839,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
@@ -887,7 +872,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
@@ -896,12 +881,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>expertise of person source</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -912,7 +897,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -924,13 +909,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -940,7 +925,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -948,60 +933,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1009,57 +999,52 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>age of person source</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>BCIO:010114</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1067,7 +1052,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1075,24 +1060,24 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1100,27 +1085,32 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>BCIO:010119</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1128,7 +1118,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1140,15 +1130,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>BCIO:010110</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1156,55 +1146,65 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1212,7 +1212,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1224,13 +1224,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>source involved in development of intervention</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1240,26 +1240,31 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1268,35 +1273,40 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1308,23 +1318,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010034</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1336,79 +1346,89 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1416,32 +1436,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1449,32 +1469,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1482,32 +1502,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1515,32 +1535,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1548,200 +1568,230 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010040</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -1749,60 +1799,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>carer</t>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -1814,23 +1869,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -1838,32 +1893,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -1871,44 +1926,49 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1916,7 +1976,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>protective services worker</t>
+          <t>technician and associate professional</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -1924,40 +1984,35 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -1965,32 +2020,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -1998,16 +2053,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2016,14 +2071,14 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>child care worker</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2031,16 +2086,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2049,14 +2104,14 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>home-based personal care worker</t>
+          <t>health associate professional</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2064,32 +2119,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2097,32 +2152,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2130,32 +2185,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2163,60 +2218,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2224,32 +2284,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2257,32 +2317,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2290,60 +2350,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2351,32 +2416,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2384,32 +2449,33 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2417,16 +2483,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2435,14 +2501,14 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>physiotherapist</t>
+          <t>artistic, cultural and culinary associate professional</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2450,16 +2516,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2468,14 +2534,14 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>information and communications technician</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2483,16 +2549,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2501,14 +2567,14 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>sport and fitness worker</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2516,60 +2582,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2577,32 +2648,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2610,16 +2681,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2628,14 +2699,14 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t>religious associate professional</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -2643,32 +2714,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -2676,32 +2747,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -2709,16 +2780,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2727,14 +2798,14 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -2742,9 +2813,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2846,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
@@ -2808,7 +2879,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
@@ -2817,7 +2888,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2826,31 +2897,26 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2859,14 +2925,14 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -2874,32 +2940,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -2907,32 +2973,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -2940,16 +3006,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2958,14 +3024,14 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -2973,16 +3039,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2991,42 +3057,47 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>primary school teacher</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3034,32 +3105,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3067,16 +3138,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3085,14 +3156,14 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>early childhood educator</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3100,16 +3171,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3118,14 +3189,14 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3133,16 +3204,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3151,14 +3222,14 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3166,16 +3237,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3184,14 +3255,14 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>vocational education teacher</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3199,60 +3270,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3260,32 +3336,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3293,32 +3369,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3326,32 +3402,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sport and fitness worker</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3359,32 +3435,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3392,32 +3468,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3425,98 +3501,88 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>religious associate professional</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3524,32 +3590,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -3557,32 +3623,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -3590,32 +3656,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -3623,32 +3689,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -3656,32 +3722,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -3689,32 +3755,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -3722,33 +3788,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -3756,588 +3821,513 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4345,23 +4335,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>elementary occupation</t>
+          <t>masters student or trainee</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4370,7 +4360,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4378,23 +4368,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4403,7 +4393,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4411,77 +4401,87 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
+          <t>BCIO:010092</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>supervision of person source</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4492,32 +4492,27 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>BCIO:010002</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -4525,32 +4520,27 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>BCIO:010095</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -4558,7 +4548,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -4570,23 +4560,23 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -4594,32 +4584,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -4627,65 +4617,75 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>course credit</t>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+          <t>BCIO:010098</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
@@ -4725,15 +4725,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -4741,35 +4741,35 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -4777,32 +4777,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -4810,32 +4810,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -4843,57 +4843,52 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>BCIO:010131</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -4901,25 +4896,30 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -4929,7 +4929,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -4937,24 +4937,24 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>male, man</t>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -4962,7 +4962,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -4970,9 +4970,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -450,14 +450,14 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="M1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -465,12 +465,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>amount of experience</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -648,29 +648,24 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>amount of experience</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -681,12 +676,17 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -737,7 +737,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -749,13 +749,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -765,7 +765,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -777,15 +777,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -793,7 +793,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -803,25 +803,20 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -831,30 +826,25 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,7 +854,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -874,22 +864,22 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>BCIO:010110</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -897,35 +887,40 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -935,7 +930,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
@@ -975,13 +970,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -991,7 +986,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1001,20 +996,20 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>language proficiency of person source</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1024,27 +1019,32 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1062,20 +1062,25 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1085,7 +1090,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1095,20 +1100,20 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>psychological influence on intervention delivery of person source</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1118,27 +1123,32 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1146,40 +1156,35 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1187,24 +1192,24 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>BCIO:010095</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1212,7 +1217,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1224,23 +1229,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1250,21 +1255,21 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1273,7 +1278,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1283,21 +1288,21 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>spouse or partner</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1306,195 +1311,185 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1504,30 +1499,30 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1537,30 +1532,30 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1570,63 +1565,58 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1636,30 +1626,30 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1669,30 +1659,30 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1702,162 +1692,142 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -1869,150 +1839,140 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2022,30 +1982,30 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2055,30 +2015,30 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2088,30 +2048,30 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2121,327 +2081,282 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2451,31 +2366,30 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2485,63 +2399,58 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2551,14 +2460,14 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2567,14 +2476,14 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2584,63 +2493,58 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nursing and midwifery professional</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2650,30 +2554,30 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2683,14 +2587,14 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2699,14 +2603,14 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -2716,30 +2620,30 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -2749,14 +2653,14 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2765,14 +2669,14 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -2782,30 +2686,30 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -2815,30 +2719,30 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -2848,14 +2752,14 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2864,14 +2768,14 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>nursing professional</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -2881,14 +2785,14 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2897,26 +2801,31 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>nursing and midwifery professional</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2925,14 +2834,14 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -2942,14 +2851,14 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2958,14 +2867,14 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -2975,14 +2884,14 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2991,14 +2900,14 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>paramedical practitioner</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3008,14 +2917,14 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3024,14 +2933,14 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3041,14 +2950,14 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3057,14 +2966,14 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3074,63 +2983,58 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3140,30 +3044,30 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3173,30 +3077,30 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3206,30 +3110,30 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3239,14 +3143,14 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3255,14 +3159,14 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>physiotherapist</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3272,30 +3176,30 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3305,30 +3209,30 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3338,30 +3242,30 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3371,30 +3275,30 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3404,30 +3308,30 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3437,30 +3341,30 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3470,30 +3374,30 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3503,86 +3407,96 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3592,30 +3506,30 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -3625,30 +3539,30 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -3658,30 +3572,30 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -3691,30 +3605,30 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -3724,30 +3638,31 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -3757,14 +3672,14 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3773,14 +3688,14 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>child care worker</t>
+          <t>artistic, cultural and culinary associate professional</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -3790,30 +3705,30 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -3823,58 +3738,63 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -3886,135 +3806,155 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4024,86 +3964,96 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010030</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4115,219 +4065,254 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010042</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4337,30 +4322,30 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4370,30 +4355,30 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4403,21 +4388,21 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t>elementary occupation</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4426,7 +4411,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -4436,21 +4421,21 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>assembler</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4459,115 +4444,125 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+          <t>BCIO:010078</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>parent or guardian</t>
+          <t>researcher</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -4576,7 +4571,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -4586,21 +4581,21 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>spouse or partner</t>
+          <t>plant and machine operator</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4609,7 +4604,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -4619,21 +4614,21 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>sibling relationship</t>
+          <t>armed forces occupation</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4642,7 +4637,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -4652,21 +4647,21 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>child relationship</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4675,7 +4670,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -4685,91 +4680,91 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+          <t>BCIO:010076</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -4779,30 +4774,30 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -4812,30 +4807,30 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010072</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -4845,58 +4840,63 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010075</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -4906,30 +4906,30 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -4939,30 +4939,30 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010070</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>supervised</t>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,22 +451,22 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -497,13 +497,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>amount of experience</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -514,7 +514,12 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -526,13 +531,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -543,7 +548,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -555,13 +560,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>amount of experience</t>
+          <t>total number of people able to deliver intervention</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -572,12 +577,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -679,7 +679,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>pre-existing knowledge or skill</t>
+          <t>acquired knowledge or skill</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -688,12 +688,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -705,29 +700,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>member of British Psychological Society</t>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -739,24 +734,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -787,13 +787,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -804,7 +804,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -816,14 +816,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -833,7 +833,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -845,24 +845,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -874,7 +874,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>source involved in co-production of intervention</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -891,7 +891,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -903,24 +903,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -932,29 +932,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>carer</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -966,24 +961,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -995,24 +990,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1024,14 +1019,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1041,12 +1036,12 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1058,7 +1053,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1066,7 +1061,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>doctoral student or trainee</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1075,12 +1070,12 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>PhD student</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1092,7 +1087,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1100,7 +1095,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1109,12 +1104,12 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>undergraduate student</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1126,7 +1121,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1134,7 +1129,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>elementary occupation</t>
+          <t>graduate student or trainee</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1143,12 +1138,12 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>graduate student</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1160,7 +1155,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1168,7 +1163,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>assembler</t>
+          <t>masters student or trainee</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1177,7 +1172,12 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1189,24 +1189,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1218,29 +1218,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -1252,29 +1247,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -1286,24 +1276,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -1315,29 +1305,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -1349,29 +1334,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -1383,29 +1363,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -1417,29 +1392,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -1451,29 +1421,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -1485,29 +1450,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>carer</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -1519,29 +1484,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -1553,29 +1518,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -1587,29 +1547,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -1621,29 +1581,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -1655,29 +1615,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -1689,29 +1649,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -1723,29 +1678,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>Personal carer</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -1757,7 +1712,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1767,19 +1722,19 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -1791,7 +1746,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1801,19 +1756,19 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>paramedical practitioner</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -1825,7 +1780,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1835,19 +1790,19 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>home-based personal care worker</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -1859,7 +1814,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1869,19 +1824,19 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -1893,24 +1848,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -1922,29 +1882,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -1956,29 +1916,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -1990,29 +1950,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -2024,29 +1984,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -2058,29 +2018,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -2092,24 +2052,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -2121,29 +2086,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -2155,29 +2120,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -2189,29 +2149,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -2223,7 +2178,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2231,21 +2186,21 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -2257,7 +2212,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2265,21 +2220,21 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -2291,7 +2246,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2299,21 +2254,21 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -2325,7 +2280,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2333,21 +2288,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -2359,7 +2314,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2369,19 +2324,19 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>creative and performing artist</t>
+          <t>information and communications technician</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -2393,7 +2348,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2403,19 +2358,19 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>linguist</t>
+          <t>health associate professional</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -2427,29 +2382,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -2461,24 +2416,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -2490,7 +2450,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2498,21 +2458,21 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -2524,7 +2484,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2535,18 +2495,19 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>medical and pharmaceutical technician</t>
+          <t>environmental and occupational health inspector and associate</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -2558,7 +2519,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2569,18 +2530,18 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>dental assistant and therapist</t>
+          <t>physiotherapy technician and assistant</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -2626,7 +2587,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2638,17 +2599,17 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>midwifery associate professional</t>
+          <t>nursing associate professional</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -2660,7 +2621,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2672,17 +2633,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>nursing associate professional</t>
+          <t>midwifery associate professional</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -2694,7 +2655,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2705,19 +2666,18 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>environmental and occupational health inspector and associate</t>
+          <t>traditional and complementary medicine associate professional</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -2729,7 +2689,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2740,18 +2700,18 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ambulance worker</t>
+          <t>medical assistant</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -2763,7 +2723,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2774,18 +2734,18 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>community health worker</t>
+          <t>ambulance worker</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -2797,7 +2757,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2805,21 +2765,21 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -2831,7 +2791,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2839,21 +2799,21 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -2865,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2873,21 +2833,21 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -2899,7 +2859,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2909,19 +2869,19 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>business and administration associate professional</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -2933,7 +2893,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2943,19 +2903,19 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -2967,29 +2927,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>religious associate professional</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -3001,7 +2961,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -3011,19 +2971,19 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -3035,7 +2995,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3043,21 +3003,21 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -3069,7 +3029,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3077,21 +3037,21 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>Midwife</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -3103,7 +3063,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3111,21 +3071,21 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -3137,7 +3097,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3147,19 +3107,14 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>business and administration associate professional</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -3171,7 +3126,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3181,19 +3136,19 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -3205,7 +3160,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3215,19 +3170,19 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -3239,24 +3194,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>optometrist and ophthalmic optician</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -3268,29 +3228,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -3302,7 +3262,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3312,19 +3272,19 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>health care assistant</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -3336,7 +3296,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3346,19 +3306,19 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>teachers’ aide</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -3370,7 +3330,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3378,21 +3338,21 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -3404,7 +3364,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3412,21 +3372,21 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -3438,29 +3398,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -3472,29 +3432,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -3506,29 +3466,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>veterinarian</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -3540,29 +3500,29 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -3574,29 +3534,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -3608,29 +3563,29 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -3642,29 +3597,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -3676,29 +3631,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -3710,24 +3665,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -3739,24 +3699,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -3768,24 +3733,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -3797,24 +3767,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -3826,24 +3801,29 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -3855,24 +3835,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -3884,24 +3869,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -3913,29 +3903,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -3947,29 +3937,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -3981,29 +3971,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -4015,29 +4005,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -4049,29 +4039,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -4083,24 +4068,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -4112,24 +4102,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -4141,24 +4136,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -4170,12 +4170,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
+          <t>ADDICTO:0000399</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://addictovocab.org/ADDICTO_0000399</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4189,13 +4189,13 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4206,26 +4206,26 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4235,12 +4235,12 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>male, man</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -4252,14 +4252,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>female, woman</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -4286,50 +4286,35 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of person source</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -4337,12 +4322,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -4354,14 +4334,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>psychological influence on intervention delivery of person source</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4371,7 +4351,12 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -4383,14 +4368,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>religious group membership of person source</t>
+          <t>target behaviour of person source</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4400,12 +4385,12 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>source is highly physically active</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -4417,14 +4402,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4434,12 +4419,12 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -4451,14 +4436,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4468,7 +4453,12 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -4480,29 +4470,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>non-binary, transexual</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -4514,16 +4504,16 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -4531,17 +4521,12 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -4553,14 +4538,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4570,12 +4555,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -4587,14 +4567,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4604,12 +4584,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -4621,32 +4596,47 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADDICTO:0000399</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>http://addictovocab.org/ADDICTO_0000399</t>
-        </is>
-      </c>
+          <t>BCIO:010116</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4657,26 +4647,36 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -4703,14 +4703,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4720,12 +4720,12 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -4756,13 +4756,13 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>OGMS:0000087</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4771,57 +4771,57 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>OGMS:0000087</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>role model for a person</t>
+          <t>person source</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -4850,12 +4850,7 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -4867,7 +4862,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4875,7 +4870,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>role model for a person</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -4884,7 +4879,12 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -4896,29 +4896,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -4964,7 +4959,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4973,7 +4968,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>child relationship</t>
+          <t>sibling relationship</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4981,12 +4976,12 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -4998,7 +4993,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -5007,7 +5002,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>spouse or partner</t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -5015,12 +5010,12 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -5032,24 +5027,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -5061,13 +5061,13 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -5143,13 +5143,13 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
+          <t>BCIO:010129</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t>volunteering of person source</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -5160,7 +5160,12 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -5172,16 +5177,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -5189,12 +5194,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -5240,16 +5240,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -5257,12 +5257,12 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>ADDICTO:0000399</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+          <t>http://addictovocab.org/ADDICTO_0000399</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -497,13 +497,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amount of experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -514,33 +514,28 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>full-day, 6 years</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -548,28 +543,33 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -577,24 +577,29 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000016</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -608,13 +613,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>expertise of person source</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -625,10 +630,10 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -637,16 +642,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -654,15 +659,10 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -671,95 +671,80 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -768,46 +753,56 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BFO:0000023</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
-        </is>
-      </c>
+          <t>BCIO:010094</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -816,27 +811,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -845,27 +840,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -874,7 +869,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -882,7 +877,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -891,10 +886,10 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -903,27 +898,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -932,45 +927,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -978,82 +978,92 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1061,7 +1071,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t>clerical support worker</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1070,24 +1080,24 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>PhD student</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1095,7 +1105,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t>researcher</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1104,24 +1114,24 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1129,7 +1139,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>armed forces occupation</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1138,24 +1148,24 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>graduate student</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1163,7 +1173,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>craft and related trades worker</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1172,44 +1182,44 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1218,56 +1228,61 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1276,27 +1291,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1305,414 +1320,450 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>carer</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Interventionist, facilitator, study staff</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Personal carer</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1720,33 +1771,33 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1754,33 +1805,33 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1788,33 +1839,33 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1822,296 +1873,291 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2120,65 +2166,75 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2188,31 +2244,31 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>music teacher</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2220,33 +2276,33 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2254,33 +2310,33 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2288,58 +2344,53 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2348,7 +2399,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2358,31 +2409,31 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2390,33 +2441,33 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2424,33 +2475,33 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2458,33 +2509,33 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2492,34 +2543,33 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2530,30 +2580,30 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>physiotherapy technician and assistant</t>
+          <t>social work and counselling professional</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2564,30 +2614,30 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>nursing and midwifery associate professional</t>
+          <t>psychologist</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2595,33 +2645,33 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2629,67 +2679,67 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2697,33 +2747,33 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2731,33 +2781,33 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2767,31 +2817,31 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2801,31 +2851,31 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2833,33 +2883,33 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2867,33 +2917,33 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2903,58 +2953,58 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>midwifery professional</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
@@ -2983,19 +3033,19 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3005,31 +3055,31 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>physiotherapist</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3039,31 +3089,31 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Midwife</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3073,24 +3123,24 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3167,7 @@
           <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3126,7 +3176,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3136,31 +3186,31 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3170,31 +3220,31 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3204,124 +3254,119 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3330,41 +3375,41 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Primary care physician, family doctor, GP</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3372,33 +3417,33 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3408,31 +3453,31 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3442,31 +3487,31 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3476,31 +3521,31 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>veterinarian</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3509,7 +3554,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>science and engineering professional</t>
+          <t>protective services worker</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3517,24 +3562,24 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3543,7 +3588,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>legal, social and cultural professional</t>
+          <t>sales worker</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3551,78 +3596,78 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3631,32 +3676,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3665,32 +3705,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3699,32 +3734,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3733,32 +3763,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3767,32 +3792,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3801,32 +3821,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3835,32 +3850,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3869,197 +3879,197 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4068,32 +4078,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4102,66 +4107,46 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+        </is>
+      </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4170,114 +4155,129 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ADDICTO:0000399</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>http://addictovocab.org/ADDICTO_0000399</t>
-        </is>
-      </c>
+          <t>BCIO:010121</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>male, man</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
-        <is>
-          <t>female, woman</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4286,12 +4286,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4305,13 +4305,13 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4322,10 +4322,10 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4334,14 +4334,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4351,31 +4351,31 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4385,33 +4385,33 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010128</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -4419,33 +4419,33 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010129</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4453,67 +4453,52 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -4521,15 +4506,10 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4538,43 +4518,33 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>OGMS:0000087</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4584,10 +4554,10 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4596,32 +4566,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4630,190 +4595,215 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>discipline of pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>psychology, medicine, hairdressing</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:010099</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>OGMS:0000087</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -4821,10 +4811,10 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4833,61 +4823,46 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4896,27 +4871,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4925,152 +4900,152 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>age of person source</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -5078,10 +5053,10 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5090,35 +5065,50 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
-        </is>
-      </c>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -5126,33 +5116,33 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>supervised</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5160,30 +5150,30 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -5194,26 +5184,36 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -5223,31 +5223,31 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>course credit</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -5257,17 +5257,17 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -1265,7 +1265,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -8303,7 +8303,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
@@ -8408,7 +8408,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -9349,7 +9349,7 @@
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t>A &lt;mental process&gt; that has positive or negative valence.</t>
         </is>
       </c>
     </row>
